--- a/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
@@ -302,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,143 +662,155 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E7" s="2">
         <v>44099</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43917</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43826</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>683700</v>
+      </c>
+      <c r="E8" s="3">
         <v>699000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>665800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>804900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>743700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>823300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>790600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>834900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>372300</v>
+      </c>
+      <c r="E9" s="3">
         <v>403000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>386700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>382000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>431800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>419400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>434400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>455500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E10" s="3">
         <v>296000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>314200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>283800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>373100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>324300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>388900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>335100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,37 +822,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E12" s="3">
         <v>65500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>82900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>77400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>81400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>103100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>79600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>85300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,37 +884,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-31800</v>
+        <v>86600</v>
       </c>
       <c r="E14" s="3">
-        <v>725500</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>-18400</v>
+        <v>746200</v>
       </c>
       <c r="G14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H14" s="3">
         <v>1471900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>113300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3892500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -926,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +961,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>706400</v>
+      </c>
+      <c r="E17" s="3">
         <v>657500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1426400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>672100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2154300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>735400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>853200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>775200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4704100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E18" s="3">
         <v>41500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-725500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1349400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-29900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3869200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,153 +1039,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-62100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>40800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>76600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>17800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E21" s="3">
         <v>278500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-508800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>222000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1183900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>284000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>287700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>280800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3599400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E22" s="3">
         <v>62200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>64200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>74500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>77200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>77600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>71500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>82700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-789300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-75600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1488700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-49500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3944600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-211600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>161300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-18900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-327700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-27600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-24300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-204700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-226800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1181,66 +1229,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-154200</v>
+      </c>
+      <c r="E26" s="3">
         <v>191800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-950600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1161000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>155200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-154200</v>
+      </c>
+      <c r="E27" s="3">
         <v>191800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-950600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1161000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>155200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1268,37 +1325,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>17500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>6500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>3900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>7300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1326,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1355,66 +1421,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>62100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-40800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-76600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-17800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="E33" s="3">
         <v>191600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-933100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-50200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1157100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>154900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1442,71 +1517,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="E35" s="3">
         <v>191600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-933100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-50200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1157100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>154900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E38" s="2">
         <v>44099</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43917</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43826</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1518,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1531,37 +1616,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1070600</v>
+      </c>
+      <c r="E41" s="3">
         <v>844200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>818300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>808000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>790900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>498800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>241100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>225800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>348900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1589,124 +1678,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>538800</v>
+      </c>
+      <c r="E43" s="3">
         <v>516100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>493300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>527200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>577500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>538800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>528400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>575900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>623300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>344900</v>
+      </c>
+      <c r="E44" s="3">
         <v>343300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>333000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>327100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>312100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>325500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>337400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>319700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>322300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E45" s="3">
         <v>360900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>310200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>211000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>150200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>298100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>112500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>120100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2304300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2064500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1954800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1873300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1830700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1661200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1219400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1241500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1734,66 +1838,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>833100</v>
+      </c>
+      <c r="E48" s="3">
         <v>851400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>864700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>878200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>980000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>979400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1084800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1057800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>6184500</v>
+      </c>
+      <c r="E49" s="3">
         <v>6355900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6566500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6820400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7018000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7496100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7721100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8060200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8282800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1821,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1850,37 +1966,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>393500</v>
+      </c>
+      <c r="E52" s="3">
         <v>433100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>304100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>599400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>510200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>219400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>196400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>196000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1908,37 +2030,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9715400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9704900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9690100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10171300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10338900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10356100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10221700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10555500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10877300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1950,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1963,124 +2092,137 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E57" s="3">
         <v>79100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>86500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>110200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>139800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>148600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>132600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>3587900</v>
+      </c>
+      <c r="E58" s="3">
         <v>5241300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>634200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>633600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>716100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>717900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>437500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1183400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1214900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>539700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>653500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>736900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>691000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>701600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>773800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4118700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6503800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1320900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1284100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1426900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1553900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1557500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>854000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>943700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2088,57 +2230,63 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>5223400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4739100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4741200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5048700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4823000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5817600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6069200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>4577500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2035400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2176300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2252300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2230100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>673100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>766000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>830000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>977100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2166,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2195,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2224,37 +2378,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8696200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8539200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8720600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8275500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8398200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7275700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7146500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7501600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7990000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2266,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2295,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2324,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2353,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2382,37 +2552,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-2961500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2808600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3000200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2067100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2016900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-859800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-857500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-863700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1017700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2440,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2469,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2498,37 +2680,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1019200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1165700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>969500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1895800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1940700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3080400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3075200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3053900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2887300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2556,71 +2744,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E80" s="2">
         <v>44099</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43917</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43826</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="E81" s="3">
         <v>191600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-933100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-50200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1157100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>154900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2632,37 +2829,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E83" s="3">
         <v>236100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>216300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>223100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>227600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>234900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>241000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>247600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>255100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2690,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2719,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2748,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2777,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2806,37 +3019,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E89" s="3">
         <v>70100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>170900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>53700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>223900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>302900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>164500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2848,37 +3067,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2906,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2935,37 +3161,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>86700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2977,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3006,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3035,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3064,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3093,91 +3335,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-149300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>241200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-258000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-248400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-96100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E102" s="3">
         <v>40800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>295800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>266900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-123000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,155 +662,168 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44281</v>
+      </c>
+      <c r="E7" s="2">
         <v>44190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44099</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43917</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43826</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43553</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E8" s="3">
         <v>683700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>699000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>665800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>804900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>743700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>823300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>790600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>834900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E9" s="3">
         <v>372300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>403000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>386700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>382000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>431800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>419400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>434400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>455500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E10" s="3">
         <v>311400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>296000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>314200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>283800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>373100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>324300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>388900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>335100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,40 +836,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E12" s="3">
         <v>65000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>65500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>82900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>77400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>81400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>103100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>79600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>85300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100400</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,40 +904,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>158600</v>
+      </c>
+      <c r="E14" s="3">
         <v>86600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>746200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1471900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>113300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3892500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,72 +988,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E17" s="3">
         <v>706400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>657500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1426400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>672100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2154300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>735400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>853200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>775200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4704100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>41500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-725500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1349400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-29900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3869200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1040,168 +1073,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-62100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>40800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>76600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E21" s="3">
         <v>193800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>278500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-508800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>222000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1183900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>284000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>287700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>280800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3599400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E22" s="3">
         <v>60200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>64200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>74500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>77200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>77600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>71500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>82700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-76100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-789300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-75600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1488700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-49500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3944600</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E24" s="3">
         <v>78100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-211600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>161300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-18900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-327700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-27600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-24300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-204700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-226800</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1232,72 +1281,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-154200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>191800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-950600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1161000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>155200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-154200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>191800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-950600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-56700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1161000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>155200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1328,40 +1386,46 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>300</v>
+      </c>
+      <c r="E29" s="3">
         <v>1300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>17500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>6500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>3900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,72 +1491,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>62100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-40800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-76600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-152900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>191600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-933100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-50200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1157100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>154900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1520,77 +1596,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-152900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>191600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-933100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-50200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1157100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>154900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44281</v>
+      </c>
+      <c r="E38" s="2">
         <v>44190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44099</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43917</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43826</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43553</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1617,40 +1703,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1077900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1070600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>844200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>818300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>808000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>790900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>498800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>241100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>225800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>348900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1681,136 +1771,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>477400</v>
+      </c>
+      <c r="E43" s="3">
         <v>538800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>516100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>493300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>527200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>577500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>538800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>528400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>575900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>623300</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>363400</v>
+      </c>
+      <c r="E44" s="3">
         <v>344900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>343300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>333000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>327100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>312100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>325500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>337400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>319700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>322300</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>367900</v>
+      </c>
+      <c r="E45" s="3">
         <v>350000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>360900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>310200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>211000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>150200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>298100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>112500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>120100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2286600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2304300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2064500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1954800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1873300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1830700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1661200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1219400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1241500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1841,72 +1946,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>794400</v>
+      </c>
+      <c r="E48" s="3">
         <v>833100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>851400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>864700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>878200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>980000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>979400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1084800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1057800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>5974700</v>
+      </c>
+      <c r="E49" s="3">
         <v>6184500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6355900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6566500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6820400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7018000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7496100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7721100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8060200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8282800</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,40 +2086,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>380500</v>
+      </c>
+      <c r="E52" s="3">
         <v>393500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>433100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>304100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>599400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>510200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>219400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>196400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>196000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2033,40 +2156,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9436200</v>
+      </c>
+      <c r="E54" s="3">
         <v>9715400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9704900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9690100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10171300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10338900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10356100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10221700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10555500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10877300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2093,136 +2223,149 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E57" s="3">
         <v>93300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>86500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>110200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>139800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>148600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>132600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1701700</v>
+      </c>
+      <c r="E58" s="3">
         <v>3587900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5241300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>634200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>633600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>716100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>717900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>465400</v>
+      </c>
+      <c r="E59" s="3">
         <v>437500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1183400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1214900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>539700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>653500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>736900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>691000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>701600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>773800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2265500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4118700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6503800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1320900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1284100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1426900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1553900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1557500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>854000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>943700</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2233,60 +2376,66 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>5223400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4739100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4741200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5048700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4823000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5817600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6069200</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6291800</v>
+      </c>
+      <c r="E62" s="3">
         <v>4577500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2035400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2176300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2252300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2230100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>673100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>766000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>830000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>977100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2381,40 +2536,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8557300</v>
+      </c>
+      <c r="E66" s="3">
         <v>8696200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8539200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8720600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8275500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8398200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7275700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7146500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7501600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7990000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2555,40 +2726,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-3105400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2961500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2808600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3000200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2067100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2016900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-859800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-857500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-863700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1017700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,40 +2866,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>878900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1019200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1165700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>969500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1895800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1940700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3080400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3075200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3053900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2887300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2747,77 +2936,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44281</v>
+      </c>
+      <c r="E80" s="2">
         <v>44190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44099</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43917</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43826</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43553</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-152900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>191600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-933100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-50200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1157100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>154900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2830,40 +3028,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E83" s="3">
         <v>209700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>236100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>216300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>223100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>227600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>234900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>241000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>247600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>255100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,40 +3236,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E89" s="3">
         <v>204200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>70100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>170900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>53700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>223900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>302900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>164500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3068,40 +3288,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,40 +3391,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E94" s="3">
         <v>25200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>86700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,100 +3581,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-149300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>241200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-258000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-248400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-96100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E102" s="3">
         <v>226500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>40800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>295800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>266900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-123000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>58300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,168 +662,181 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44372</v>
+      </c>
+      <c r="E7" s="2">
         <v>44281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44099</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43917</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43826</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43644</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43553</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>546400</v>
+      </c>
+      <c r="E8" s="3">
         <v>558000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>683700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>699000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>665800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>804900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>743700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>823300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>790600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>834900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E9" s="3">
         <v>307600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>372300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>403000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>386700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>382000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>431800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>419400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>434400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>455500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>214800</v>
+      </c>
+      <c r="E10" s="3">
         <v>250400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>311400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>296000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>314200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>283800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>373100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>324300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>388900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>335100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,43 +850,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E12" s="3">
         <v>66200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>65000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>65500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>82900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>77400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>81400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>103100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>79600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>85300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100400</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,43 +924,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>158600</v>
+        <v>115900</v>
       </c>
       <c r="E14" s="3">
+        <v>159800</v>
+      </c>
+      <c r="F14" s="3">
         <v>86600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>746200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1471900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>113300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3892500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,78 +1015,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E17" s="3">
         <v>669000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>706400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>657500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1426400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>672100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2154300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>735400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>853200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>775200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4704100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-111000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-22700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>41500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-725500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1349400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-29900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3869200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1074,183 +1107,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-62100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>40800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>76600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E21" s="3">
         <v>68600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>193800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>278500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-508800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>222000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1183900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>284000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>287700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>280800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3599400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E22" s="3">
         <v>59600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>60200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>64200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>74500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>77200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>77600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>82700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-139700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-160600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-76100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-789300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-75600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1488700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-49500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3944600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>78100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-211600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>161300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-327700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-27600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-24300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-204700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-226800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1284,78 +1333,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-144200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-154200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>191800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-950600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1161000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>155200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-144200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-154200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>191800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-950600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1161000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>155200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1389,43 +1447,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>400</v>
+      </c>
+      <c r="E29" s="3">
         <v>300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>17500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>6500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>3900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1494,78 +1561,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>62100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-40800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-76600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-143900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-152900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>191600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-933100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-50200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1157100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>154900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1599,83 +1675,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-143900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-152900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>191600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-933100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-50200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1157100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>154900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44372</v>
+      </c>
+      <c r="E38" s="2">
         <v>44281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44099</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43917</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43826</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43644</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43553</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1704,43 +1790,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1254900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1077900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1070600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>844200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>818300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>808000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>790900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>498800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>241100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>225800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>348900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1774,148 +1864,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>449800</v>
+      </c>
+      <c r="E43" s="3">
         <v>477400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>538800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>516100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>493300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>527200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>577500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>538800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>528400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>575900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>623300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>354800</v>
+      </c>
+      <c r="E44" s="3">
         <v>363400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>344900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>343300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>333000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>327100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>312100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>325500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>337400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>319700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>322300</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>280400</v>
+      </c>
+      <c r="E45" s="3">
         <v>367900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>350000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>360900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>310200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>211000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>150200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>298100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>120100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2339900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2286600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2304300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2064500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1954800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1873300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1830700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1661200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1219400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1241500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1949,78 +2054,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>779400</v>
+      </c>
+      <c r="E48" s="3">
         <v>794400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>833100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>851400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>864700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>878200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>980000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>979400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1084800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1057800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>5829400</v>
+      </c>
+      <c r="E49" s="3">
         <v>5974700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6184500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6355900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6566500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6820400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7018000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7496100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7721100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8060200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8282800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2089,43 +2206,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E52" s="3">
         <v>380500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>393500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>433100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>304100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>599400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>510200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>219400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>196400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>196000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2159,43 +2282,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9336700</v>
+      </c>
+      <c r="E54" s="3">
         <v>9436200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9715400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9704900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9690100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10171300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10338900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10356100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10221700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10555500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10877300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2224,148 +2354,161 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E57" s="3">
         <v>98400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>93300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>79100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>86500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>110200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>139800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>148600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>132600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1701700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3587900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5241300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>634200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>633600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>716100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>717900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>502700</v>
+      </c>
+      <c r="E59" s="3">
         <v>465400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>437500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1183400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1214900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>539700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>653500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>736900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>691000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>701600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>773800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2307400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2265500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4118700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6503800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1320900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1284100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1426900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1553900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1557500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>854000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>943700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2379,63 +2522,69 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>5223400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4739100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4741200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5048700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4823000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5817600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6069200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6253300</v>
+      </c>
+      <c r="E62" s="3">
         <v>6291800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4577500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2035400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2176300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2252300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2230100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>673100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>766000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>830000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>977100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2539,43 +2694,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8560700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8557300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8696200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8539200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8720600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8275500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8398200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7275700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7146500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7501600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7990000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2729,43 +2900,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-3211200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3105400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2961500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2808600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3000200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2067100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2016900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-859800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-857500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-863700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1017700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2869,43 +3052,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>776000</v>
+      </c>
+      <c r="E76" s="3">
         <v>878900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1019200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1165700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>969500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1895800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1940700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3080400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3075200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3053900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2887300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2939,83 +3128,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44372</v>
+      </c>
+      <c r="E80" s="2">
         <v>44281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44099</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43917</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43826</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43644</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43553</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-143900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-152900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>191600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-933100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-50200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1157100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>154900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3029,43 +3227,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E83" s="3">
         <v>169600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>209700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>236100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>216300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>223100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>227600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>234900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>241000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>247600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>255100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3239,43 +3453,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>172600</v>
+      </c>
+      <c r="E89" s="3">
         <v>151400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>204200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>70100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>170900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>53700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>223900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>302900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>164500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3289,43 +3509,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3394,43 +3621,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>25200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>86700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3584,109 +3827,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-118900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-149300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>241200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-258000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-248400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-96100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E102" s="3">
         <v>10500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>226500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>40800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>295800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>266900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-123000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,181 +662,194 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44463</v>
+      </c>
+      <c r="E7" s="2">
         <v>44372</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44099</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43917</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43826</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43553</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>507200</v>
+      </c>
+      <c r="E8" s="3">
         <v>546400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>558000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>683700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>699000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>665800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>804900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>743700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>823300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>790600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>834900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>319200</v>
+      </c>
+      <c r="E9" s="3">
         <v>331600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>307600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>372300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>403000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>386700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>382000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>431800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>419400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>434400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>455500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E10" s="3">
         <v>214800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>250400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>311400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>296000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>314200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>283800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>373100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>324300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>388900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>335100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,46 +864,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E12" s="3">
         <v>52800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>66200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>65000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>82900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>77400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>81400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>103100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>79600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>85300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100400</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,46 +944,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>262300</v>
+      </c>
+      <c r="E14" s="3">
         <v>115900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>159800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>86600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>746200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1471900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>113300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3892500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,84 +1042,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E17" s="3">
         <v>645000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>669000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>706400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>657500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1426400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>672100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2154300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>735400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>853200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>775200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4704100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-248800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-98600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-111000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-725500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1349400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-29900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3869200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1108,198 +1141,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>11300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-62100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>40800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>76600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="E21" s="3">
         <v>80700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>193800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>278500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-508800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>222000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1183900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>284000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>287700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>280800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3599400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E22" s="3">
         <v>52400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>60200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>62200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>64200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>74500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>77200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>77600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>71500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>82700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-139700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-160600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-76100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-789300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-75600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1488700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-49500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3944600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-33500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>78100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-211600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>161300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-18900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-327700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-27600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-24300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-204700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-226800</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1336,84 +1385,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-106200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-144200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-154200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>191800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-950600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1161000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>155200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-106200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-144200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-154200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>191800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-950600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1161000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>155200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1450,46 +1508,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E29" s="3">
         <v>400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>17500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>6500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>3900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1564,84 +1631,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>62100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-40800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-76600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-263700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-105800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-143900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-152900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>191600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-933100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-50200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1157100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>154900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1678,89 +1754,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-263700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-105800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-143900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-152900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>191600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-933100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-50200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1157100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>154900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44463</v>
+      </c>
+      <c r="E38" s="2">
         <v>44372</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44099</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43917</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43826</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43553</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1791,46 +1877,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1322600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1254900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1077900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1070600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>844200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>818300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>808000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>790900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>498800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>241100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>225800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>348900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1867,160 +1957,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>431700</v>
+      </c>
+      <c r="E43" s="3">
         <v>449800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>477400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>538800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>516100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>493300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>527200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>577500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>538800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>528400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>575900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>623300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>367600</v>
+      </c>
+      <c r="E44" s="3">
         <v>354800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>363400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>344900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>343300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>333000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>327100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>312100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>325500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>337400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>319700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>322300</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E45" s="3">
         <v>280400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>367900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>350000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>360900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>310200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>211000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>150200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>298100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>120100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2325600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2339900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2286600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2304300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2064500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1954800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1873300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1830700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1661200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1219400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1241500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2057,84 +2162,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>767700</v>
+      </c>
+      <c r="E48" s="3">
         <v>779400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>794400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>833100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>851400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>864700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>878200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>980000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>979400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1084800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1057800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>5684100</v>
+      </c>
+      <c r="E49" s="3">
         <v>5829400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5974700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6184500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6355900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6566500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6820400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7018000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7496100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7721100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8060200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8282800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,46 +2326,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>380600</v>
+      </c>
+      <c r="E52" s="3">
         <v>388000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>380500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>393500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>433100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>304100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>599400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>510200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>219400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>196400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>196000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2285,46 +2408,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9158000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9336700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9436200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9715400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9704900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9690100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10171300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10338900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10356100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10221700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10555500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10877300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2355,160 +2485,173 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E57" s="3">
         <v>101700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>98400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>93300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>86500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>110200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>139800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>148600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>132600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1388100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1703000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1701700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3587900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5241300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>634200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>633600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>716100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>717900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>475500</v>
+      </c>
+      <c r="E59" s="3">
         <v>502700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>465400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>437500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1183400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1214900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>539700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>653500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>736900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>691000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>701600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>773800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1985800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2307400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2265500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4118700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6503800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1320900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1284100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1426900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1553900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1557500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>854000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>943700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2525,66 +2668,72 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>5223400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4739100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4741200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5048700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4823000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5817600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6069200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6658800</v>
+      </c>
+      <c r="E62" s="3">
         <v>6253300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6291800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4577500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2035400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2176300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2252300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2230100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>673100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>766000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>830000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>977100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2697,46 +2852,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8644600</v>
+      </c>
+      <c r="E66" s="3">
         <v>8560700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8557300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8696200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8539200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8720600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8275500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8398200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7275700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7146500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7501600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7990000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2903,46 +3074,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-3474900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3211200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3105400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2961500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2808600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3000200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2067100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2016900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-859800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-857500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-863700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1017700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3055,46 +3238,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>513400</v>
+      </c>
+      <c r="E76" s="3">
         <v>776000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>878900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1019200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1165700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>969500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1895800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1940700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3080400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3075200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3053900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2887300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3131,89 +3320,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44463</v>
+      </c>
+      <c r="E80" s="2">
         <v>44372</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44099</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43917</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43826</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43553</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-263700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-105800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-143900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-152900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>191600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-933100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-50200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1157100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>154900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3228,46 +3426,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>168500</v>
+      </c>
+      <c r="E83" s="3">
         <v>168000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>169600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>209700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>236100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>216300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>223100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>227600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>234900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>241000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>247600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>255100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3456,46 +3670,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E89" s="3">
         <v>172600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>151400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>204200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>70100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>170900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>53700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>223900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>302900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>164500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3510,46 +3730,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3624,46 +3851,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E94" s="3">
         <v>8400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>25200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>86700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3830,118 +4073,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-118900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-22400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-149300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>241200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-258000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-248400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-96100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E102" s="3">
         <v>177100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>226500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>40800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>295800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>266900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-123000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNKKQ_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,194 +662,219 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44463</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44372</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44099</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43917</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43826</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43553</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>490900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>597200</v>
+      </c>
+      <c r="F8" s="3">
         <v>507200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>546400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>558000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>683700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>699000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>665800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>804900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>743700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>823300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>790600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>834900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>358700</v>
+      </c>
+      <c r="F9" s="3">
         <v>319200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>331600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>307600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>372300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>403000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>386700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>382000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>431800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>419400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>434400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>455500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>238500</v>
+      </c>
+      <c r="F10" s="3">
         <v>188000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>214800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>250400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>311400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>296000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>314200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>283800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>373100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>324300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>388900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>335100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,49 +890,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F12" s="3">
         <v>47300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>52800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>66200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>65000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>65500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>82900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>77400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>81400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>103100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>79600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>85300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>100400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -947,49 +980,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F14" s="3">
         <v>262300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>115900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>159800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>86600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>746200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1471900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>7200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>113300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>4200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3892500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,90 +1094,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>555100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>769900</v>
+      </c>
+      <c r="F17" s="3">
         <v>756000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>645000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>669000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>706400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>657500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1426400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>672100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2154300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>735400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>853200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>775200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4704100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-172700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-248800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-98600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-111000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-22700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>41500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-725500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1349400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-29900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>15400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3869200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1142,213 +1207,245 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>11300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-62100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>40800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>76600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>17800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-83800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>80700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>68600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>193800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>278500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-508800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>222000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1183900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>284000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>287700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>280800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3599400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F22" s="3">
         <v>48700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>52400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>59600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>60200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>62200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>64200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>74500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>77200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>77600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>71500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>82700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-126100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-228500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-301000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-139700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-160600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-76100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-19800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-789300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-75600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1488700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-28500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-24800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-49500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3944600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-32000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-33500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-16400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>78100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-211600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>161300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-18900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-327700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-27600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-24300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-204700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-226800</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1388,90 +1485,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-269000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-106200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-144200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-154200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>191800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-950600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-56700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1161000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>155200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-269000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-106200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-144200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-154200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>191800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-950600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-56700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1161000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>155200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3717800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1511,49 +1626,61 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3">
         <v>5300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>1300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>17500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>6500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>3900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>7300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1634,90 +1767,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-11300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>62100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-40800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-76600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-17800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-263700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-105800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-143900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-152900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>191600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-933100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-50200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1157100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>154900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1757,95 +1908,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-263700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-105800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-143900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-152900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>191600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-933100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-50200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1157100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>154900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44463</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44372</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44099</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43917</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43826</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43553</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1878,49 +2049,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1365300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1322600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1254900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1077900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1070600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>844200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>818300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>808000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>790900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>498800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>241100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>225800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>348900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1960,172 +2139,202 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>364400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>439100</v>
+      </c>
+      <c r="F43" s="3">
         <v>431700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>449800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>477400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>538800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>516100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>493300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>527200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>577500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>538800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>528400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>575900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>623300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>371500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>347200</v>
+      </c>
+      <c r="F44" s="3">
         <v>367600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>354800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>363400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>344900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>343300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>333000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>327100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>312100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>325500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>337400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>319700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>322300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>178300</v>
+      </c>
+      <c r="F45" s="3">
         <v>203700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>280400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>367900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>350000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>360900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>310200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>211000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>150200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>298100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>112500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>120100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2280600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2309600</v>
+      </c>
+      <c r="F46" s="3">
         <v>2325600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2339900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2286600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2304300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2064500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1954800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1873300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1830700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1661200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1219400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1241500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2165,90 +2374,108 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>758500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>776000</v>
+      </c>
+      <c r="F48" s="3">
         <v>767700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>779400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>794400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>833100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>851400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>864700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>878200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>980000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>979400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1084800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1057800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>5293400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5448400</v>
+      </c>
+      <c r="F49" s="3">
         <v>5684100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5829400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5974700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6184500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6355900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6566500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6820400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7018000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7496100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7721100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8060200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8282800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2329,49 +2562,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>372400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>382300</v>
+      </c>
+      <c r="F52" s="3">
         <v>380600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>388000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>380500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>393500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>433100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>304100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>599400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>510200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>219400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>196400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>196000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2411,49 +2656,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>8704900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8916300</v>
+      </c>
+      <c r="F54" s="3">
         <v>9158000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9336700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9436200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9715400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9704900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9690100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10171300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10338900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10356100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10221700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10555500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10877300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2486,172 +2745,198 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>123000</v>
+      </c>
+      <c r="F57" s="3">
         <v>122200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>101700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>98400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>93300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>79100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>86500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>110200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>139800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>148600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>132600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1389500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1388900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1388100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1703000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1701700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3587900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5241300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>19500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>634200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>633600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>716100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>717900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>19800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>350300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>430300</v>
+      </c>
+      <c r="F59" s="3">
         <v>475500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>502700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>465400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>437500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1183400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1214900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>539700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>653500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>736900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>691000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>701600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>773800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1847300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1942200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1985800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2307400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2265500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4118700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6503800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1320900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1284100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1426900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1553900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1557500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>854000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>943700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2671,69 +2956,81 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>5223400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4739100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4741200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5048700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4823000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5817600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6069200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6662600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6660700</v>
+      </c>
+      <c r="F62" s="3">
         <v>6658800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6253300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6291800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4577500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2035400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2176300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2252300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2230100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>673100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>766000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>830000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>977100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2855,49 +3164,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8509900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8602900</v>
+      </c>
+      <c r="F66" s="3">
         <v>8644600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8560700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8557300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8696200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8539200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8720600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8275500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8398200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7275700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7146500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7501600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7990000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3077,49 +3418,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-3798500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3678900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3474900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3211200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3105400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2961500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2808600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3000200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2067100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2016900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-859800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-857500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-863700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1017700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3241,49 +3606,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>313400</v>
+      </c>
+      <c r="F76" s="3">
         <v>513400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>776000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>878900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1019200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1165700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>969500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1895800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1940700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3080400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3075200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3053900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2887300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3323,95 +3700,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44463</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44372</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44099</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43917</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43826</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43553</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43462</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-263700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-105800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-143900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-152900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>191600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-933100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-50200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1157100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>154900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3718400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3427,49 +3822,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>169700</v>
+      </c>
+      <c r="F83" s="3">
         <v>168500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>168000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>169600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>209700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>236100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>216300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>223100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>227600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>234900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>241000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>247600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>255100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3673,49 +4100,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F89" s="3">
         <v>82400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>172600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>151400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>204200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>70100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>170900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>53700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>223900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>51600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>302900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>164500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3731,49 +4170,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-20900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-11400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-19900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-24300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-31100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-37800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-39800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3854,49 +4307,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>8400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-21600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>25200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-16700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>86700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-25600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-30000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-39400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-29100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4076,127 +4561,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-118900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-22400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-149300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>241200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-258000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-248400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-96100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F102" s="3">
         <v>67600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>177100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>226500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>40800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>10500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>26600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>295800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>266900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>15400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-123000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>58300</v>
       </c>
     </row>
